--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiyonari\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tashi\source\repos\matching_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644A2D95-707E-464C-A9A9-4BCD4B88F6C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="2688" yWindow="1380" windowWidth="11148" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,8 +50,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,12 +74,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -87,8 +168,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -125,7 +233,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -182,7 +296,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -239,7 +359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -296,7 +422,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -353,7 +485,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -410,7 +548,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -460,7 +604,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="0"/>
           <a:endCxn id="36" idx="2"/>
@@ -512,7 +662,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="カギ線コネクタ 13"/>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="6" idx="1"/>
@@ -564,7 +720,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="カギ線コネクタ 16"/>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
           <a:endCxn id="18" idx="1"/>
@@ -616,7 +778,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -673,7 +841,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -730,7 +904,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="カギ線コネクタ 20"/>
+        <xdr:cNvPr id="21" name="カギ線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="4" idx="0"/>
@@ -782,7 +962,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="カギ線コネクタ 34"/>
+        <xdr:cNvPr id="35" name="カギ線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="5" idx="1"/>
@@ -835,7 +1021,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -892,7 +1084,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="カギ線コネクタ 38"/>
+        <xdr:cNvPr id="39" name="カギ線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="0"/>
           <a:endCxn id="38" idx="1"/>
@@ -942,7 +1140,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="カギ線コネクタ 28"/>
+        <xdr:cNvPr id="29" name="カギ線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="0"/>
           <a:endCxn id="3" idx="3"/>
@@ -995,7 +1199,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="3"/>
           <a:endCxn id="3" idx="3"/>
@@ -1047,7 +1257,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="カギ線コネクタ 40"/>
+        <xdr:cNvPr id="41" name="カギ線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="3"/>
           <a:endCxn id="3" idx="3"/>
@@ -1099,7 +1315,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1156,7 +1378,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1213,7 +1441,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1270,7 +1504,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1327,7 +1567,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1384,7 +1630,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="43" idx="3"/>
           <a:endCxn id="44" idx="1"/>
@@ -1434,7 +1686,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="カギ線コネクタ 48"/>
+        <xdr:cNvPr id="49" name="カギ線コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="0"/>
           <a:endCxn id="53" idx="2"/>
@@ -1486,7 +1744,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="カギ線コネクタ 49"/>
+        <xdr:cNvPr id="50" name="カギ線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="46" idx="3"/>
           <a:endCxn id="47" idx="1"/>
@@ -1538,7 +1802,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="カギ線コネクタ 50"/>
+        <xdr:cNvPr id="51" name="カギ線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="3"/>
           <a:endCxn id="52" idx="1"/>
@@ -1590,7 +1860,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1647,7 +1923,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1704,7 +1986,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="カギ線コネクタ 53"/>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="43" idx="2"/>
           <a:endCxn id="45" idx="0"/>
@@ -1756,7 +2044,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="カギ線コネクタ 54"/>
+        <xdr:cNvPr id="55" name="カギ線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="2"/>
           <a:endCxn id="46" idx="1"/>
@@ -1809,7 +2103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1866,7 +2166,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="カギ線コネクタ 56"/>
+        <xdr:cNvPr id="57" name="カギ線コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="0"/>
           <a:endCxn id="56" idx="1"/>
@@ -1916,7 +2222,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="カギ線コネクタ 57"/>
+        <xdr:cNvPr id="58" name="カギ線コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="53" idx="0"/>
           <a:endCxn id="44" idx="3"/>
@@ -1969,7 +2281,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="カギ線コネクタ 58"/>
+        <xdr:cNvPr id="59" name="カギ線コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="56" idx="3"/>
           <a:endCxn id="44" idx="3"/>
@@ -2021,7 +2339,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="カギ線コネクタ 59"/>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="52" idx="3"/>
           <a:endCxn id="44" idx="3"/>
@@ -2323,22 +2647,544 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="1" spans="2:14" ht="13.8" thickBot="1"/>
+    <row r="2" spans="2:14">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="2:14" ht="13.8" thickBot="1">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="2:14" ht="13.8" thickBot="1">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
